--- a/student_template.xlsx
+++ b/student_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t xml:space="preserve">Student FFID</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t xml:space="preserve">08-01-2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123224</t>
   </si>
   <si>
     <t xml:space="preserve">08-01-2002</t>
@@ -284,6 +287,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -369,23 +373,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="57.31"/>
   </cols>
@@ -764,7 +768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>77</v>
       </c>
@@ -793,12 +797,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>82</v>
+      </c>
       <c r="F15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>16</v>
